--- a/pred_ohlcv/54/2019-10-24 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-24 LAMB ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:I277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="C2" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="D2" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="E2" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="F2" t="n">
-        <v>1537.9054</v>
+        <v>941.7807</v>
       </c>
       <c r="G2" t="n">
-        <v>35.41833333333334</v>
+        <v>35.43833333333334</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="C3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="D3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="E3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2071.2523</v>
+        <v>1537.9054</v>
       </c>
       <c r="G3" t="n">
-        <v>35.405</v>
+        <v>35.41833333333334</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>35.2</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="D4" t="n">
         <v>35.2</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="F4" t="n">
-        <v>17068.921</v>
+        <v>2071.2523</v>
       </c>
       <c r="G4" t="n">
-        <v>35.38833333333334</v>
+        <v>35.405</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,10 +500,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C5" t="n">
         <v>35</v>
-      </c>
-      <c r="C5" t="n">
-        <v>35.2</v>
       </c>
       <c r="D5" t="n">
         <v>35.2</v>
@@ -498,12 +512,15 @@
         <v>35</v>
       </c>
       <c r="F5" t="n">
-        <v>941.199</v>
+        <v>17068.921</v>
       </c>
       <c r="G5" t="n">
-        <v>35.36333333333334</v>
+        <v>35.38833333333334</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,10 +529,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" t="n">
         <v>35.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>35.2</v>
@@ -524,12 +541,15 @@
         <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>5630.6587</v>
+        <v>941.199</v>
       </c>
       <c r="G6" t="n">
-        <v>35.34</v>
+        <v>35.36333333333334</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="C7" t="n">
         <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="E7" t="n">
         <v>35</v>
       </c>
       <c r="F7" t="n">
-        <v>512.5599999999999</v>
+        <v>5630.6587</v>
       </c>
       <c r="G7" t="n">
-        <v>35.32166666666667</v>
+        <v>35.34</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>13294.607</v>
+        <v>512.5599999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>35.30333333333333</v>
+        <v>35.32166666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C9" t="n">
-        <v>35.1</v>
+        <v>34.7</v>
       </c>
       <c r="D9" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="E9" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F9" t="n">
-        <v>110</v>
+        <v>13294.607</v>
       </c>
       <c r="G9" t="n">
-        <v>35.29999999999999</v>
+        <v>35.30333333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>34.8</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5</v>
+        <v>35.1</v>
       </c>
       <c r="D10" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E10" t="n">
         <v>34.8</v>
       </c>
-      <c r="E10" t="n">
-        <v>34.5</v>
-      </c>
       <c r="F10" t="n">
-        <v>44111.5567</v>
+        <v>110</v>
       </c>
       <c r="G10" t="n">
-        <v>35.27166666666666</v>
+        <v>35.29999999999999</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="C11" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="E11" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F11" t="n">
-        <v>26936.2446</v>
+        <v>44111.5567</v>
       </c>
       <c r="G11" t="n">
-        <v>35.24666666666666</v>
+        <v>35.27166666666666</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="F12" t="n">
-        <v>2857.1428</v>
+        <v>26936.2446</v>
       </c>
       <c r="G12" t="n">
-        <v>35.23833333333333</v>
+        <v>35.24666666666666</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
-        <v>1634.4708</v>
+        <v>2857.1428</v>
       </c>
       <c r="G13" t="n">
-        <v>35.21666666666666</v>
+        <v>35.23833333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="C14" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="D14" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E14" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="F14" t="n">
-        <v>77.4498</v>
+        <v>1634.4708</v>
       </c>
       <c r="G14" t="n">
-        <v>35.20166666666666</v>
+        <v>35.21666666666666</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="D15" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="E15" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="F15" t="n">
-        <v>724.0595</v>
+        <v>77.4498</v>
       </c>
       <c r="G15" t="n">
-        <v>35.18333333333332</v>
+        <v>35.20166666666666</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C16" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D16" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E16" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1279.6369</v>
+        <v>724.0595</v>
       </c>
       <c r="G16" t="n">
-        <v>35.16499999999998</v>
+        <v>35.18333333333332</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D17" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E17" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F17" t="n">
-        <v>3048.4922</v>
+        <v>1279.6369</v>
       </c>
       <c r="G17" t="n">
-        <v>35.14499999999998</v>
+        <v>35.16499999999998</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C18" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D18" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E18" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1564.0306</v>
+        <v>3048.4922</v>
       </c>
       <c r="G18" t="n">
-        <v>35.12999999999999</v>
+        <v>35.14499999999998</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>34.8</v>
       </c>
       <c r="F19" t="n">
-        <v>43400</v>
+        <v>1564.0306</v>
       </c>
       <c r="G19" t="n">
-        <v>35.11499999999999</v>
+        <v>35.12999999999999</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>34.8</v>
       </c>
       <c r="F20" t="n">
-        <v>42600</v>
+        <v>43400</v>
       </c>
       <c r="G20" t="n">
-        <v>35.10166666666667</v>
+        <v>35.11499999999999</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>34.8</v>
       </c>
       <c r="F21" t="n">
-        <v>27265</v>
+        <v>42600</v>
       </c>
       <c r="G21" t="n">
-        <v>35.09166666666667</v>
+        <v>35.10166666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>34.8</v>
       </c>
       <c r="F22" t="n">
-        <v>7471.3126</v>
+        <v>27265</v>
       </c>
       <c r="G22" t="n">
-        <v>35.08166666666667</v>
+        <v>35.09166666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C23" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="E23" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F23" t="n">
-        <v>50820.0947</v>
+        <v>7471.3126</v>
       </c>
       <c r="G23" t="n">
-        <v>35.08000000000001</v>
+        <v>35.08166666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -986,18 +1057,21 @@
         <v>34.9</v>
       </c>
       <c r="D24" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E24" t="n">
         <v>34.9</v>
       </c>
       <c r="F24" t="n">
-        <v>783.5796</v>
+        <v>50820.0947</v>
       </c>
       <c r="G24" t="n">
-        <v>35.07833333333334</v>
+        <v>35.08000000000001</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>34.9</v>
       </c>
       <c r="C25" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="D25" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="E25" t="n">
         <v>34.9</v>
       </c>
       <c r="F25" t="n">
-        <v>12348.56067642045</v>
+        <v>783.5796</v>
       </c>
       <c r="G25" t="n">
-        <v>35.08166666666667</v>
+        <v>35.07833333333334</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,21 +1112,24 @@
         <v>34.9</v>
       </c>
       <c r="C26" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="D26" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="E26" t="n">
         <v>34.9</v>
       </c>
       <c r="F26" t="n">
-        <v>38748.9541</v>
+        <v>12348.56067642045</v>
       </c>
       <c r="G26" t="n">
-        <v>35.08000000000001</v>
+        <v>35.08166666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E27" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>38748.9541</v>
       </c>
       <c r="G27" t="n">
-        <v>35.08166666666667</v>
+        <v>35.08000000000001</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="C28" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="E28" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
-        <v>806.6808</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>35.065</v>
+        <v>35.08166666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C29" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D29" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E29" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F29" t="n">
-        <v>25054.9039</v>
+        <v>806.6808</v>
       </c>
       <c r="G29" t="n">
-        <v>35.04833333333333</v>
+        <v>35.065</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C30" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D30" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E30" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="F30" t="n">
-        <v>1469.1704</v>
+        <v>25054.9039</v>
       </c>
       <c r="G30" t="n">
-        <v>35.03166666666667</v>
+        <v>35.04833333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="C31" t="n">
         <v>34.6</v>
       </c>
       <c r="D31" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="E31" t="n">
         <v>34.6</v>
       </c>
       <c r="F31" t="n">
-        <v>5434.4364</v>
+        <v>1469.1704</v>
       </c>
       <c r="G31" t="n">
-        <v>35.02333333333333</v>
+        <v>35.03166666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>34.6</v>
       </c>
       <c r="F32" t="n">
-        <v>3714.5982</v>
+        <v>5434.4364</v>
       </c>
       <c r="G32" t="n">
-        <v>35.01166666666666</v>
+        <v>35.02333333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>34.6</v>
       </c>
       <c r="C33" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="D33" t="n">
         <v>34.6</v>
       </c>
       <c r="E33" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="F33" t="n">
-        <v>42800</v>
+        <v>3714.5982</v>
       </c>
       <c r="G33" t="n">
-        <v>35</v>
+        <v>35.01166666666666</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C34" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D34" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E34" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F34" t="n">
-        <v>3611.3139</v>
+        <v>42800</v>
       </c>
       <c r="G34" t="n">
-        <v>34.985</v>
+        <v>35</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>34.5</v>
       </c>
       <c r="F35" t="n">
-        <v>5341.9222</v>
+        <v>3611.3139</v>
       </c>
       <c r="G35" t="n">
-        <v>34.97333333333334</v>
+        <v>34.985</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>34.5</v>
       </c>
       <c r="C36" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D36" t="n">
         <v>34.5</v>
       </c>
       <c r="E36" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F36" t="n">
-        <v>53032.5217</v>
+        <v>5341.9222</v>
       </c>
       <c r="G36" t="n">
-        <v>34.95500000000001</v>
+        <v>34.97333333333334</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C37" t="n">
         <v>34.4</v>
       </c>
       <c r="D37" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E37" t="n">
         <v>34.4</v>
       </c>
       <c r="F37" t="n">
-        <v>37022.803</v>
+        <v>53032.5217</v>
       </c>
       <c r="G37" t="n">
-        <v>34.94333333333334</v>
+        <v>34.95500000000001</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C38" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="D38" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="E38" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F38" t="n">
-        <v>11661.0109</v>
+        <v>37022.803</v>
       </c>
       <c r="G38" t="n">
-        <v>34.93000000000001</v>
+        <v>34.94333333333334</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,21 +1489,24 @@
         <v>34.3</v>
       </c>
       <c r="C39" t="n">
-        <v>33.6</v>
+        <v>34.3</v>
       </c>
       <c r="D39" t="n">
         <v>34.3</v>
       </c>
       <c r="E39" t="n">
-        <v>33.6</v>
+        <v>34.3</v>
       </c>
       <c r="F39" t="n">
-        <v>91591.92819999999</v>
+        <v>11661.0109</v>
       </c>
       <c r="G39" t="n">
-        <v>34.90500000000001</v>
+        <v>34.93000000000001</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,25 +1515,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33.8</v>
+        <v>34.3</v>
       </c>
       <c r="C40" t="n">
-        <v>34.3</v>
+        <v>33.6</v>
       </c>
       <c r="D40" t="n">
         <v>34.3</v>
       </c>
       <c r="E40" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="F40" t="n">
-        <v>27568.7607</v>
+        <v>91591.92819999999</v>
       </c>
       <c r="G40" t="n">
-        <v>34.89166666666668</v>
+        <v>34.90500000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="C41" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="D41" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="E41" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="F41" t="n">
-        <v>4332.4838</v>
+        <v>27568.7607</v>
       </c>
       <c r="G41" t="n">
-        <v>34.87666666666668</v>
+        <v>34.89166666666668</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>34.1</v>
       </c>
       <c r="F42" t="n">
-        <v>4000</v>
+        <v>4332.4838</v>
       </c>
       <c r="G42" t="n">
-        <v>34.86333333333334</v>
+        <v>34.87666666666668</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="C43" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D43" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E43" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="F43" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="G43" t="n">
-        <v>34.85500000000001</v>
+        <v>34.86333333333334</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1515,9 +1646,12 @@
         <v>4500</v>
       </c>
       <c r="G44" t="n">
-        <v>34.84166666666668</v>
+        <v>34.85500000000001</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="C45" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E45" t="n">
         <v>33.9</v>
       </c>
-      <c r="D45" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>33.8</v>
-      </c>
       <c r="F45" t="n">
-        <v>29258.3841</v>
+        <v>4500</v>
       </c>
       <c r="G45" t="n">
-        <v>34.82000000000001</v>
+        <v>34.84166666666668</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="C46" t="n">
         <v>33.9</v>
       </c>
       <c r="D46" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="E46" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="F46" t="n">
-        <v>90.9447</v>
+        <v>29258.3841</v>
       </c>
       <c r="G46" t="n">
-        <v>34.79833333333335</v>
+        <v>34.82000000000001</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>33.9</v>
       </c>
       <c r="F47" t="n">
-        <v>123</v>
+        <v>90.9447</v>
       </c>
       <c r="G47" t="n">
-        <v>34.77666666666669</v>
+        <v>34.79833333333335</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="C48" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="D48" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="E48" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="F48" t="n">
-        <v>10000</v>
+        <v>123</v>
       </c>
       <c r="G48" t="n">
-        <v>34.75500000000002</v>
+        <v>34.77666666666669</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="C49" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="D49" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="E49" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="F49" t="n">
-        <v>21400</v>
+        <v>10000</v>
       </c>
       <c r="G49" t="n">
-        <v>34.74333333333335</v>
+        <v>34.75500000000002</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C50" t="n">
         <v>34.5</v>
@@ -1665,15 +1814,18 @@
         <v>34.5</v>
       </c>
       <c r="E50" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>21400</v>
       </c>
       <c r="G50" t="n">
-        <v>34.73166666666669</v>
+        <v>34.74333333333335</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>34.5</v>
       </c>
       <c r="F51" t="n">
-        <v>2355.1063</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>34.72333333333336</v>
+        <v>34.73166666666669</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C52" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D52" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E52" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F52" t="n">
-        <v>99.75</v>
+        <v>2355.1063</v>
       </c>
       <c r="G52" t="n">
-        <v>34.71166666666669</v>
+        <v>34.72333333333336</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>34.4</v>
       </c>
       <c r="F53" t="n">
-        <v>20000</v>
+        <v>99.75</v>
       </c>
       <c r="G53" t="n">
-        <v>34.69500000000003</v>
+        <v>34.71166666666669</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C54" t="n">
         <v>34.4</v>
       </c>
       <c r="D54" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E54" t="n">
         <v>34.4</v>
       </c>
       <c r="F54" t="n">
-        <v>6126.7777</v>
+        <v>20000</v>
       </c>
       <c r="G54" t="n">
-        <v>34.68333333333337</v>
+        <v>34.69500000000003</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C55" t="n">
         <v>34.4</v>
       </c>
       <c r="D55" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E55" t="n">
         <v>34.4</v>
       </c>
       <c r="F55" t="n">
-        <v>6157.1132</v>
+        <v>6126.7777</v>
       </c>
       <c r="G55" t="n">
-        <v>34.67000000000004</v>
+        <v>34.68333333333337</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>34.4</v>
       </c>
       <c r="C56" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="D56" t="n">
         <v>34.4</v>
       </c>
       <c r="E56" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="F56" t="n">
-        <v>36988.2067</v>
+        <v>6157.1132</v>
       </c>
       <c r="G56" t="n">
-        <v>34.65333333333337</v>
+        <v>34.67000000000004</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C57" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D57" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="E57" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F57" t="n">
-        <v>38476.1576</v>
+        <v>36988.2067</v>
       </c>
       <c r="G57" t="n">
-        <v>34.63333333333336</v>
+        <v>34.65333333333337</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C58" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="D58" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="E58" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>38476.1576</v>
       </c>
       <c r="G58" t="n">
-        <v>34.61166666666669</v>
+        <v>34.63333333333336</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>34.2</v>
       </c>
       <c r="C59" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
         <v>34.2</v>
       </c>
       <c r="E59" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F59" t="n">
-        <v>18500</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="n">
-        <v>34.59166666666669</v>
+        <v>34.61166666666669</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C60" t="n">
         <v>34.1</v>
       </c>
       <c r="D60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E60" t="n">
         <v>34.1</v>
       </c>
       <c r="F60" t="n">
-        <v>2500</v>
+        <v>18500</v>
       </c>
       <c r="G60" t="n">
-        <v>34.57166666666669</v>
+        <v>34.59166666666669</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>34.1</v>
       </c>
       <c r="F61" t="n">
-        <v>3930.3971</v>
+        <v>2500</v>
       </c>
       <c r="G61" t="n">
-        <v>34.55333333333336</v>
+        <v>34.57166666666669</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="C62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F62" t="n">
-        <v>12.56</v>
+        <v>3930.3971</v>
       </c>
       <c r="G62" t="n">
-        <v>34.54000000000001</v>
+        <v>34.55333333333336</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="C63" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D63" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="E63" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F63" t="n">
-        <v>824.254</v>
+        <v>12.56</v>
       </c>
       <c r="G63" t="n">
-        <v>34.52166666666668</v>
+        <v>34.54000000000001</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="C64" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="D64" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="E64" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="F64" t="n">
-        <v>1385.8808</v>
+        <v>824.254</v>
       </c>
       <c r="G64" t="n">
-        <v>34.51166666666668</v>
+        <v>34.52166666666668</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +2240,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C65" t="n">
         <v>34.4</v>
@@ -2055,15 +2249,18 @@
         <v>34.4</v>
       </c>
       <c r="E65" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F65" t="n">
-        <v>4847.3957</v>
+        <v>1385.8808</v>
       </c>
       <c r="G65" t="n">
-        <v>34.49833333333336</v>
+        <v>34.51166666666668</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,7 +2269,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="C66" t="n">
         <v>34.4</v>
@@ -2081,15 +2278,18 @@
         <v>34.4</v>
       </c>
       <c r="E66" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="F66" t="n">
-        <v>6069</v>
+        <v>4847.3957</v>
       </c>
       <c r="G66" t="n">
-        <v>34.48833333333336</v>
+        <v>34.49833333333336</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>34.4</v>
       </c>
       <c r="F67" t="n">
-        <v>914.1281</v>
+        <v>6069</v>
       </c>
       <c r="G67" t="n">
-        <v>34.47833333333336</v>
+        <v>34.48833333333336</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C68" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="D68" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E68" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F68" t="n">
-        <v>29496.7434</v>
+        <v>914.1281</v>
       </c>
       <c r="G68" t="n">
-        <v>34.47666666666669</v>
+        <v>34.47833333333336</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C69" t="n">
         <v>34.6</v>
       </c>
-      <c r="C69" t="n">
-        <v>34.8</v>
-      </c>
       <c r="D69" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="E69" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="F69" t="n">
-        <v>2393.3086</v>
+        <v>29496.7434</v>
       </c>
       <c r="G69" t="n">
-        <v>34.4716666666667</v>
+        <v>34.47666666666669</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="C70" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D70" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E70" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="F70" t="n">
-        <v>28797.5598</v>
+        <v>2393.3086</v>
       </c>
       <c r="G70" t="n">
-        <v>34.47833333333337</v>
+        <v>34.4716666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>34.9</v>
       </c>
       <c r="C71" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D71" t="n">
         <v>34.9</v>
       </c>
       <c r="E71" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F71" t="n">
-        <v>49600</v>
+        <v>28797.5598</v>
       </c>
       <c r="G71" t="n">
-        <v>34.4816666666667</v>
+        <v>34.47833333333337</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>34.5</v>
+        <v>34.9</v>
       </c>
       <c r="C72" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="D72" t="n">
-        <v>34.5</v>
+        <v>34.9</v>
       </c>
       <c r="E72" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="F72" t="n">
-        <v>65990.3536</v>
+        <v>49600</v>
       </c>
       <c r="G72" t="n">
-        <v>34.47333333333337</v>
+        <v>34.4816666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="C73" t="n">
         <v>34.5</v>
       </c>
       <c r="D73" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="E73" t="n">
         <v>34.5</v>
       </c>
       <c r="F73" t="n">
-        <v>947.6799</v>
+        <v>65990.3536</v>
       </c>
       <c r="G73" t="n">
-        <v>34.47000000000004</v>
+        <v>34.47333333333337</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C74" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="D74" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E74" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F74" t="n">
-        <v>2603.9456</v>
+        <v>947.6799</v>
       </c>
       <c r="G74" t="n">
         <v>34.47000000000004</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +2530,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="C75" t="n">
         <v>34.9</v>
@@ -2315,15 +2539,18 @@
         <v>34.9</v>
       </c>
       <c r="E75" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="F75" t="n">
-        <v>1000</v>
+        <v>2603.9456</v>
       </c>
       <c r="G75" t="n">
-        <v>34.47333333333338</v>
+        <v>34.47000000000004</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>34.9</v>
       </c>
       <c r="C76" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="D76" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="E76" t="n">
         <v>34.9</v>
       </c>
       <c r="F76" t="n">
-        <v>109995.0837</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>34.48166666666671</v>
+        <v>34.47333333333338</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>35.4</v>
+        <v>34.9</v>
       </c>
       <c r="C77" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="D77" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="E77" t="n">
-        <v>35.4</v>
+        <v>34.9</v>
       </c>
       <c r="F77" t="n">
-        <v>29473.814</v>
+        <v>109995.0837</v>
       </c>
       <c r="G77" t="n">
-        <v>34.49500000000005</v>
+        <v>34.48166666666671</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C78" t="n">
         <v>35.5</v>
       </c>
       <c r="D78" t="n">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="E78" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="F78" t="n">
-        <v>126210.1328</v>
+        <v>29473.814</v>
       </c>
       <c r="G78" t="n">
-        <v>34.50666666666671</v>
+        <v>34.49500000000005</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="C79" t="n">
-        <v>35.9</v>
+        <v>35.5</v>
       </c>
       <c r="D79" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="E79" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="F79" t="n">
-        <v>15311.9154</v>
+        <v>126210.1328</v>
       </c>
       <c r="G79" t="n">
-        <v>34.52500000000005</v>
+        <v>34.50666666666671</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,7 +2678,7 @@
         <v>35.6</v>
       </c>
       <c r="C80" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="D80" t="n">
         <v>35.9</v>
@@ -2448,13 +2687,16 @@
         <v>35.6</v>
       </c>
       <c r="F80" t="n">
-        <v>33262.8654</v>
+        <v>15311.9154</v>
       </c>
       <c r="G80" t="n">
-        <v>34.54166666666671</v>
+        <v>34.52500000000005</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2462,25 +2704,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C81" t="n">
         <v>35.8</v>
       </c>
-      <c r="C81" t="n">
-        <v>36.3</v>
-      </c>
       <c r="D81" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="E81" t="n">
         <v>35.6</v>
       </c>
       <c r="F81" t="n">
-        <v>4217.0469</v>
+        <v>33262.8654</v>
       </c>
       <c r="G81" t="n">
-        <v>34.56666666666671</v>
+        <v>34.54166666666671</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>36.2</v>
+        <v>35.8</v>
       </c>
       <c r="C82" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D82" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="E82" t="n">
-        <v>36.2</v>
+        <v>35.6</v>
       </c>
       <c r="F82" t="n">
-        <v>5763.505</v>
+        <v>4217.0469</v>
       </c>
       <c r="G82" t="n">
-        <v>34.59000000000004</v>
+        <v>34.56666666666671</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,25 +2762,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="C83" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="D83" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="E83" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1565.2307</v>
+        <v>5763.505</v>
       </c>
       <c r="G83" t="n">
-        <v>34.6066666666667</v>
+        <v>34.59000000000004</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2540,25 +2791,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="C84" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="D84" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="E84" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="F84" t="n">
-        <v>6784.9728</v>
+        <v>1565.2307</v>
       </c>
       <c r="G84" t="n">
-        <v>34.63000000000004</v>
+        <v>34.6066666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>36.5</v>
+        <v>36.1</v>
       </c>
       <c r="C85" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="D85" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="E85" t="n">
-        <v>36.5</v>
+        <v>36.1</v>
       </c>
       <c r="F85" t="n">
-        <v>11600</v>
+        <v>6784.9728</v>
       </c>
       <c r="G85" t="n">
-        <v>34.65166666666671</v>
+        <v>34.63000000000004</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,21 +2852,24 @@
         <v>36.5</v>
       </c>
       <c r="C86" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D86" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E86" t="n">
         <v>36.5</v>
       </c>
       <c r="F86" t="n">
-        <v>40327</v>
+        <v>11600</v>
       </c>
       <c r="G86" t="n">
-        <v>34.68166666666671</v>
+        <v>34.65166666666671</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,25 +2878,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C87" t="n">
         <v>36.7</v>
       </c>
-      <c r="C87" t="n">
-        <v>36.9</v>
-      </c>
       <c r="D87" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="E87" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F87" t="n">
-        <v>127</v>
+        <v>40327</v>
       </c>
       <c r="G87" t="n">
-        <v>34.71333333333337</v>
+        <v>34.68166666666671</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2644,25 +2907,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C88" t="n">
         <v>36.9</v>
       </c>
-      <c r="C88" t="n">
-        <v>37.2</v>
-      </c>
       <c r="D88" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="E88" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F88" t="n">
-        <v>9882</v>
+        <v>127</v>
       </c>
       <c r="G88" t="n">
-        <v>34.75333333333337</v>
+        <v>34.71333333333337</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2670,25 +2936,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="C89" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="D89" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="E89" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F89" t="n">
-        <v>32239.0001</v>
+        <v>9882</v>
       </c>
       <c r="G89" t="n">
-        <v>34.79166666666671</v>
+        <v>34.75333333333337</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2696,7 +2965,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="C90" t="n">
         <v>37</v>
@@ -2705,15 +2974,18 @@
         <v>37</v>
       </c>
       <c r="E90" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="F90" t="n">
-        <v>17021.565</v>
+        <v>32239.0001</v>
       </c>
       <c r="G90" t="n">
-        <v>34.83166666666671</v>
+        <v>34.79166666666671</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="C91" t="n">
-        <v>36.2</v>
+        <v>37</v>
       </c>
       <c r="D91" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="E91" t="n">
-        <v>36.2</v>
+        <v>37</v>
       </c>
       <c r="F91" t="n">
-        <v>787.3101</v>
+        <v>17021.565</v>
       </c>
       <c r="G91" t="n">
-        <v>34.85833333333337</v>
+        <v>34.83166666666671</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,21 +3026,24 @@
         <v>36.6</v>
       </c>
       <c r="C92" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="D92" t="n">
         <v>36.6</v>
       </c>
       <c r="E92" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="F92" t="n">
-        <v>741.0905</v>
+        <v>787.3101</v>
       </c>
       <c r="G92" t="n">
-        <v>34.8916666666667</v>
+        <v>34.85833333333337</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2780,18 +3058,21 @@
         <v>36.6</v>
       </c>
       <c r="D93" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E93" t="n">
         <v>36.6</v>
       </c>
       <c r="F93" t="n">
-        <v>10432.2996</v>
+        <v>741.0905</v>
       </c>
       <c r="G93" t="n">
-        <v>34.92833333333337</v>
+        <v>34.8916666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2803,21 +3084,24 @@
         <v>36.6</v>
       </c>
       <c r="C94" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D94" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E94" t="n">
         <v>36.6</v>
       </c>
-      <c r="E94" t="n">
-        <v>36.5</v>
-      </c>
       <c r="F94" t="n">
-        <v>7777.0363</v>
+        <v>10432.2996</v>
       </c>
       <c r="G94" t="n">
-        <v>34.9616666666667</v>
+        <v>34.92833333333337</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C95" t="n">
         <v>36.5</v>
       </c>
       <c r="D95" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E95" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F95" t="n">
-        <v>2439.1569</v>
+        <v>7777.0363</v>
       </c>
       <c r="G95" t="n">
-        <v>34.99500000000003</v>
+        <v>34.9616666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C96" t="n">
         <v>36.5</v>
@@ -2864,12 +3151,15 @@
         <v>36.4</v>
       </c>
       <c r="F96" t="n">
-        <v>36780.3156</v>
+        <v>2439.1569</v>
       </c>
       <c r="G96" t="n">
-        <v>35.03000000000004</v>
+        <v>34.99500000000003</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2887,15 +3177,18 @@
         <v>36.5</v>
       </c>
       <c r="E97" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F97" t="n">
-        <v>43580.0968</v>
+        <v>36780.3156</v>
       </c>
       <c r="G97" t="n">
-        <v>35.06500000000003</v>
+        <v>35.03000000000004</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>36.5</v>
       </c>
       <c r="C98" t="n">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="D98" t="n">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="E98" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F98" t="n">
-        <v>64214.42</v>
+        <v>43580.0968</v>
       </c>
       <c r="G98" t="n">
-        <v>35.11000000000003</v>
+        <v>35.06500000000003</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>36.5</v>
       </c>
       <c r="C99" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="D99" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="E99" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F99" t="n">
-        <v>14954.7279</v>
+        <v>64214.42</v>
       </c>
       <c r="G99" t="n">
-        <v>35.16000000000003</v>
+        <v>35.11000000000003</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C100" t="n">
         <v>36.6</v>
       </c>
-      <c r="C100" t="n">
-        <v>36.9</v>
-      </c>
       <c r="D100" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="E100" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F100" t="n">
-        <v>7316.4228</v>
+        <v>14954.7279</v>
       </c>
       <c r="G100" t="n">
-        <v>35.20333333333336</v>
+        <v>35.16000000000003</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C101" t="n">
         <v>36.9</v>
       </c>
-      <c r="C101" t="n">
-        <v>37</v>
-      </c>
       <c r="D101" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E101" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="F101" t="n">
-        <v>8842.919900000001</v>
+        <v>7316.4228</v>
       </c>
       <c r="G101" t="n">
-        <v>35.25166666666669</v>
+        <v>35.20333333333336</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C102" t="n">
         <v>37</v>
       </c>
-      <c r="C102" t="n">
-        <v>37.2</v>
-      </c>
       <c r="D102" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="E102" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F102" t="n">
-        <v>23368.8717</v>
+        <v>8842.919900000001</v>
       </c>
       <c r="G102" t="n">
-        <v>35.30333333333336</v>
+        <v>35.25166666666669</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>37</v>
+      </c>
+      <c r="C103" t="n">
         <v>37.2</v>
       </c>
-      <c r="C103" t="n">
-        <v>37.7</v>
-      </c>
       <c r="D103" t="n">
-        <v>37.7</v>
+        <v>37.2</v>
       </c>
       <c r="E103" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="F103" t="n">
-        <v>83608.6143</v>
+        <v>23368.8717</v>
       </c>
       <c r="G103" t="n">
-        <v>35.36166666666669</v>
+        <v>35.30333333333336</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,7 +3371,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>37.7</v>
+        <v>37.2</v>
       </c>
       <c r="C104" t="n">
         <v>37.7</v>
@@ -3069,15 +3380,18 @@
         <v>37.7</v>
       </c>
       <c r="E104" t="n">
-        <v>37.7</v>
+        <v>37.2</v>
       </c>
       <c r="F104" t="n">
-        <v>18645.4922</v>
+        <v>83608.6143</v>
       </c>
       <c r="G104" t="n">
-        <v>35.42000000000003</v>
+        <v>35.36166666666669</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>37.2</v>
+        <v>37.7</v>
       </c>
       <c r="C105" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="D105" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="E105" t="n">
-        <v>37.2</v>
+        <v>37.7</v>
       </c>
       <c r="F105" t="n">
-        <v>11406.2526</v>
+        <v>18645.4922</v>
       </c>
       <c r="G105" t="n">
-        <v>35.48000000000003</v>
+        <v>35.42000000000003</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="C106" t="n">
         <v>37.5</v>
-      </c>
-      <c r="C106" t="n">
-        <v>37.4</v>
       </c>
       <c r="D106" t="n">
         <v>37.5</v>
       </c>
       <c r="E106" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="F106" t="n">
-        <v>3902.2939</v>
+        <v>11406.2526</v>
       </c>
       <c r="G106" t="n">
-        <v>35.53833333333336</v>
+        <v>35.48000000000003</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="C107" t="n">
         <v>37.4</v>
       </c>
       <c r="D107" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E107" t="n">
         <v>37.4</v>
       </c>
-      <c r="E107" t="n">
-        <v>36.5</v>
-      </c>
       <c r="F107" t="n">
-        <v>17710.9704</v>
+        <v>3902.2939</v>
       </c>
       <c r="G107" t="n">
-        <v>35.59666666666669</v>
+        <v>35.53833333333336</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="C108" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="D108" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="E108" t="n">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="F108" t="n">
-        <v>4000</v>
+        <v>17710.9704</v>
       </c>
       <c r="G108" t="n">
-        <v>35.64333333333336</v>
+        <v>35.59666666666669</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,7 +3516,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="C109" t="n">
         <v>37</v>
@@ -3199,15 +3525,18 @@
         <v>37</v>
       </c>
       <c r="E109" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="F109" t="n">
-        <v>12585.1597</v>
+        <v>4000</v>
       </c>
       <c r="G109" t="n">
-        <v>35.68500000000003</v>
+        <v>35.64333333333336</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>36.7</v>
       </c>
       <c r="C110" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="D110" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E110" t="n">
         <v>36.6</v>
       </c>
       <c r="F110" t="n">
-        <v>11603.0359</v>
+        <v>12585.1597</v>
       </c>
       <c r="G110" t="n">
-        <v>35.72500000000003</v>
+        <v>35.68500000000003</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="C111" t="n">
-        <v>37.4</v>
+        <v>36.9</v>
       </c>
       <c r="D111" t="n">
-        <v>37.4</v>
+        <v>36.9</v>
       </c>
       <c r="E111" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="F111" t="n">
-        <v>44641.0716</v>
+        <v>11603.0359</v>
       </c>
       <c r="G111" t="n">
-        <v>35.77333333333336</v>
+        <v>35.72500000000003</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="C112" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="D112" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="E112" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="F112" t="n">
-        <v>680.3607</v>
+        <v>44641.0716</v>
       </c>
       <c r="G112" t="n">
-        <v>35.8166666666667</v>
+        <v>35.77333333333336</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="C113" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="D113" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E113" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>680.3607</v>
       </c>
       <c r="G113" t="n">
-        <v>35.85833333333336</v>
+        <v>35.8166666666667</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>36.9</v>
       </c>
       <c r="C114" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="D114" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="E114" t="n">
         <v>36.9</v>
       </c>
       <c r="F114" t="n">
-        <v>6576.7657</v>
+        <v>200</v>
       </c>
       <c r="G114" t="n">
-        <v>35.90500000000002</v>
+        <v>35.85833333333336</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,7 +3690,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="C115" t="n">
         <v>37.2</v>
@@ -3355,15 +3699,18 @@
         <v>37.2</v>
       </c>
       <c r="E115" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="F115" t="n">
-        <v>500</v>
+        <v>6576.7657</v>
       </c>
       <c r="G115" t="n">
-        <v>35.95166666666669</v>
+        <v>35.90500000000002</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="C116" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="D116" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="E116" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="F116" t="n">
-        <v>9145.7634</v>
+        <v>500</v>
       </c>
       <c r="G116" t="n">
-        <v>35.99833333333336</v>
+        <v>35.95166666666669</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="C117" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="D117" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="E117" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="F117" t="n">
-        <v>8395.3369</v>
+        <v>9145.7634</v>
       </c>
       <c r="G117" t="n">
-        <v>36.04833333333336</v>
+        <v>35.99833333333336</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="C118" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="D118" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="E118" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="F118" t="n">
-        <v>8440.8536</v>
+        <v>8395.3369</v>
       </c>
       <c r="G118" t="n">
-        <v>36.09666666666669</v>
+        <v>36.04833333333336</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="C119" t="n">
-        <v>36.3</v>
+        <v>36.9</v>
       </c>
       <c r="D119" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="E119" t="n">
-        <v>36.3</v>
+        <v>36.9</v>
       </c>
       <c r="F119" t="n">
-        <v>48383</v>
+        <v>8440.8536</v>
       </c>
       <c r="G119" t="n">
-        <v>36.13333333333336</v>
+        <v>36.09666666666669</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="C120" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D120" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E120" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F120" t="n">
-        <v>12146.7381</v>
+        <v>48383</v>
       </c>
       <c r="G120" t="n">
-        <v>36.1716666666667</v>
+        <v>36.13333333333336</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,10 +3864,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C121" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D121" t="n">
         <v>36.4</v>
@@ -3514,12 +3876,15 @@
         <v>36.2</v>
       </c>
       <c r="F121" t="n">
-        <v>12287.3164</v>
+        <v>12146.7381</v>
       </c>
       <c r="G121" t="n">
-        <v>36.2066666666667</v>
+        <v>36.1716666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3531,21 +3896,24 @@
         <v>36.4</v>
       </c>
       <c r="C122" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="D122" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E122" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F122" t="n">
-        <v>13388.9606</v>
+        <v>12287.3164</v>
       </c>
       <c r="G122" t="n">
-        <v>36.24000000000003</v>
+        <v>36.2066666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3557,21 +3925,24 @@
         <v>36.4</v>
       </c>
       <c r="C123" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D123" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E123" t="n">
         <v>36.4</v>
       </c>
       <c r="F123" t="n">
-        <v>8004.2912</v>
+        <v>13388.9606</v>
       </c>
       <c r="G123" t="n">
-        <v>36.27833333333337</v>
+        <v>36.24000000000003</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="C124" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="D124" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="E124" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F124" t="n">
-        <v>85750.13890000001</v>
+        <v>8004.2912</v>
       </c>
       <c r="G124" t="n">
-        <v>36.3166666666667</v>
+        <v>36.27833333333337</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +3980,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C125" t="n">
         <v>36.7</v>
@@ -3615,15 +3989,18 @@
         <v>36.7</v>
       </c>
       <c r="E125" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="F125" t="n">
-        <v>3772.1099</v>
+        <v>85750.13890000001</v>
       </c>
       <c r="G125" t="n">
-        <v>36.35500000000003</v>
+        <v>36.3166666666667</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3638,18 +4015,21 @@
         <v>36.7</v>
       </c>
       <c r="D126" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E126" t="n">
         <v>36.7</v>
       </c>
       <c r="F126" t="n">
-        <v>65402.9483</v>
+        <v>3772.1099</v>
       </c>
       <c r="G126" t="n">
-        <v>36.39333333333335</v>
+        <v>36.35500000000003</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>36.7</v>
       </c>
       <c r="C127" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D127" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E127" t="n">
         <v>36.7</v>
       </c>
-      <c r="E127" t="n">
-        <v>36.5</v>
-      </c>
       <c r="F127" t="n">
-        <v>1500</v>
+        <v>65402.9483</v>
       </c>
       <c r="G127" t="n">
-        <v>36.42833333333336</v>
+        <v>36.39333333333335</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C128" t="n">
         <v>36.5</v>
       </c>
       <c r="D128" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E128" t="n">
         <v>36.5</v>
       </c>
       <c r="F128" t="n">
-        <v>1330.0016</v>
+        <v>1500</v>
       </c>
       <c r="G128" t="n">
-        <v>36.46000000000002</v>
+        <v>36.42833333333336</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3713,21 +4099,24 @@
         <v>36.5</v>
       </c>
       <c r="C129" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D129" t="n">
         <v>36.5</v>
       </c>
       <c r="E129" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F129" t="n">
-        <v>1000</v>
+        <v>1330.0016</v>
       </c>
       <c r="G129" t="n">
-        <v>36.48666666666669</v>
+        <v>36.46000000000002</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="C130" t="n">
-        <v>36.9</v>
+        <v>36.4</v>
       </c>
       <c r="D130" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="E130" t="n">
-        <v>36.9</v>
+        <v>36.4</v>
       </c>
       <c r="F130" t="n">
-        <v>10.56</v>
+        <v>1000</v>
       </c>
       <c r="G130" t="n">
-        <v>36.52000000000002</v>
+        <v>36.48666666666669</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>36.9</v>
       </c>
       <c r="F131" t="n">
-        <v>14537.5338</v>
+        <v>10.56</v>
       </c>
       <c r="G131" t="n">
-        <v>36.55500000000002</v>
+        <v>36.52000000000002</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>36.4</v>
+        <v>36.9</v>
       </c>
       <c r="C132" t="n">
-        <v>36.4</v>
+        <v>36.9</v>
       </c>
       <c r="D132" t="n">
-        <v>36.4</v>
+        <v>36.9</v>
       </c>
       <c r="E132" t="n">
-        <v>36.4</v>
+        <v>36.9</v>
       </c>
       <c r="F132" t="n">
-        <v>831.8286000000001</v>
+        <v>14537.5338</v>
       </c>
       <c r="G132" t="n">
-        <v>36.58666666666669</v>
+        <v>36.55500000000002</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="C133" t="n">
-        <v>37.2</v>
+        <v>36.4</v>
       </c>
       <c r="D133" t="n">
-        <v>37.2</v>
+        <v>36.4</v>
       </c>
       <c r="E133" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="F133" t="n">
-        <v>25400</v>
+        <v>831.8286000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>36.63166666666668</v>
+        <v>36.58666666666669</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>37.3</v>
+        <v>37</v>
       </c>
       <c r="C134" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="D134" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="E134" t="n">
-        <v>37.3</v>
+        <v>37</v>
       </c>
       <c r="F134" t="n">
-        <v>24082.97728609626</v>
+        <v>25400</v>
       </c>
       <c r="G134" t="n">
-        <v>36.67333333333335</v>
+        <v>36.63166666666668</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>36.7</v>
+        <v>37.3</v>
       </c>
       <c r="C135" t="n">
-        <v>36.7</v>
+        <v>37.4</v>
       </c>
       <c r="D135" t="n">
-        <v>36.7</v>
+        <v>37.4</v>
       </c>
       <c r="E135" t="n">
-        <v>36.7</v>
+        <v>37.3</v>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>24082.97728609626</v>
       </c>
       <c r="G135" t="n">
-        <v>36.70333333333335</v>
+        <v>36.67333333333335</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,12 +4311,15 @@
         <v>36.7</v>
       </c>
       <c r="F136" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="G136" t="n">
-        <v>36.72666666666667</v>
+        <v>36.70333333333335</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>36.7</v>
       </c>
       <c r="F137" t="n">
-        <v>16415.2072</v>
+        <v>5000</v>
       </c>
       <c r="G137" t="n">
-        <v>36.74666666666667</v>
+        <v>36.72666666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C138" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D138" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E138" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F138" t="n">
-        <v>3000</v>
+        <v>16415.2072</v>
       </c>
       <c r="G138" t="n">
-        <v>36.76333333333334</v>
+        <v>36.74666666666667</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3973,21 +4389,24 @@
         <v>36.5</v>
       </c>
       <c r="C139" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D139" t="n">
         <v>36.5</v>
       </c>
       <c r="E139" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F139" t="n">
         <v>3000</v>
       </c>
       <c r="G139" t="n">
-        <v>36.77166666666667</v>
+        <v>36.76333333333334</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C140" t="n">
         <v>36.4</v>
       </c>
       <c r="D140" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E140" t="n">
         <v>36.4</v>
       </c>
       <c r="F140" t="n">
-        <v>12567.8627</v>
+        <v>3000</v>
       </c>
       <c r="G140" t="n">
-        <v>36.78166666666667</v>
+        <v>36.77166666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>36.4</v>
       </c>
       <c r="F141" t="n">
-        <v>11919.7201</v>
+        <v>12567.8627</v>
       </c>
       <c r="G141" t="n">
-        <v>36.78333333333333</v>
+        <v>36.78166666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>36.4</v>
       </c>
       <c r="F142" t="n">
-        <v>11162.284</v>
+        <v>11919.7201</v>
       </c>
       <c r="G142" t="n">
-        <v>36.78666666666667</v>
+        <v>36.78333333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="C143" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="D143" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E143" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F143" t="n">
-        <v>1563.1545</v>
+        <v>11162.284</v>
       </c>
       <c r="G143" t="n">
-        <v>36.79833333333333</v>
+        <v>36.78666666666667</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C144" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D144" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E144" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F144" t="n">
-        <v>29406.154</v>
+        <v>1563.1545</v>
       </c>
       <c r="G144" t="n">
-        <v>36.8</v>
+        <v>36.79833333333333</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>36.4</v>
       </c>
       <c r="F145" t="n">
-        <v>40779.155</v>
+        <v>29406.154</v>
       </c>
       <c r="G145" t="n">
-        <v>36.79833333333333</v>
+        <v>36.8</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C146" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D146" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E146" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F146" t="n">
-        <v>20000</v>
+        <v>40779.155</v>
       </c>
       <c r="G146" t="n">
-        <v>36.79166666666667</v>
+        <v>36.79833333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4181,21 +4621,24 @@
         <v>36.3</v>
       </c>
       <c r="C147" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D147" t="n">
         <v>36.3</v>
       </c>
       <c r="E147" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F147" t="n">
-        <v>51700</v>
+        <v>20000</v>
       </c>
       <c r="G147" t="n">
-        <v>36.78</v>
+        <v>36.79166666666667</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C148" t="n">
         <v>36.2</v>
       </c>
-      <c r="C148" t="n">
-        <v>35.7</v>
-      </c>
       <c r="D148" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E148" t="n">
         <v>36.2</v>
       </c>
-      <c r="E148" t="n">
-        <v>35.7</v>
-      </c>
       <c r="F148" t="n">
-        <v>69090</v>
+        <v>51700</v>
       </c>
       <c r="G148" t="n">
-        <v>36.755</v>
+        <v>36.78</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="C149" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="D149" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="E149" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="F149" t="n">
-        <v>24724.1111</v>
+        <v>69090</v>
       </c>
       <c r="G149" t="n">
-        <v>36.73166666666667</v>
+        <v>36.755</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>35.5</v>
+        <v>35.9</v>
       </c>
       <c r="C150" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="D150" t="n">
-        <v>35.5</v>
+        <v>35.9</v>
       </c>
       <c r="E150" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="F150" t="n">
-        <v>1588.4336</v>
+        <v>24724.1111</v>
       </c>
       <c r="G150" t="n">
-        <v>36.70666666666667</v>
+        <v>36.73166666666667</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="C151" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="D151" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="E151" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="F151" t="n">
-        <v>500</v>
+        <v>1588.4336</v>
       </c>
       <c r="G151" t="n">
-        <v>36.69666666666667</v>
+        <v>36.70666666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4311,21 +4766,24 @@
         <v>35.6</v>
       </c>
       <c r="C152" t="n">
-        <v>34.8</v>
+        <v>35.6</v>
       </c>
       <c r="D152" t="n">
         <v>35.6</v>
       </c>
       <c r="E152" t="n">
-        <v>34.8</v>
+        <v>35.6</v>
       </c>
       <c r="F152" t="n">
-        <v>24458</v>
+        <v>500</v>
       </c>
       <c r="G152" t="n">
-        <v>36.66666666666667</v>
+        <v>36.69666666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>35.3</v>
+        <v>35.6</v>
       </c>
       <c r="C153" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="D153" t="n">
         <v>35.6</v>
       </c>
       <c r="E153" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="F153" t="n">
-        <v>20672.7224</v>
+        <v>24458</v>
       </c>
       <c r="G153" t="n">
-        <v>36.64666666666668</v>
+        <v>36.66666666666667</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="C154" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D154" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="E154" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="F154" t="n">
-        <v>997.5</v>
+        <v>20672.7224</v>
       </c>
       <c r="G154" t="n">
-        <v>36.63000000000001</v>
+        <v>36.64666666666668</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="C155" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="D155" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="E155" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="F155" t="n">
-        <v>1306.3127</v>
+        <v>997.5</v>
       </c>
       <c r="G155" t="n">
-        <v>36.61500000000001</v>
+        <v>36.63000000000001</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="C156" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="D156" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="E156" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="F156" t="n">
-        <v>16640.2087</v>
+        <v>1306.3127</v>
       </c>
       <c r="G156" t="n">
-        <v>36.60166666666667</v>
+        <v>36.61500000000001</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="C157" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="D157" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="E157" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="F157" t="n">
-        <v>7747.1775</v>
+        <v>16640.2087</v>
       </c>
       <c r="G157" t="n">
-        <v>36.58666666666667</v>
+        <v>36.60166666666667</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="C158" t="n">
         <v>35.6</v>
       </c>
       <c r="D158" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="E158" t="n">
         <v>35.6</v>
       </c>
       <c r="F158" t="n">
-        <v>1185.0696</v>
+        <v>7747.1775</v>
       </c>
       <c r="G158" t="n">
-        <v>36.56333333333334</v>
+        <v>36.58666666666667</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="C159" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="D159" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="E159" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="F159" t="n">
-        <v>1000</v>
+        <v>1185.0696</v>
       </c>
       <c r="G159" t="n">
-        <v>36.54333333333334</v>
+        <v>36.56333333333334</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="C160" t="n">
         <v>35.4</v>
       </c>
       <c r="D160" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="E160" t="n">
         <v>35.4</v>
       </c>
       <c r="F160" t="n">
-        <v>25909.1553</v>
+        <v>1000</v>
       </c>
       <c r="G160" t="n">
-        <v>36.51833333333334</v>
+        <v>36.54333333333334</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="C161" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="D161" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="E161" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="F161" t="n">
-        <v>32646.43</v>
+        <v>25909.1553</v>
       </c>
       <c r="G161" t="n">
-        <v>36.48500000000001</v>
+        <v>36.51833333333334</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="C162" t="n">
         <v>35</v>
       </c>
       <c r="D162" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="E162" t="n">
         <v>35</v>
       </c>
       <c r="F162" t="n">
-        <v>20400</v>
+        <v>32646.43</v>
       </c>
       <c r="G162" t="n">
-        <v>36.44833333333334</v>
+        <v>36.48500000000001</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,7 +5082,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C163" t="n">
         <v>35</v>
@@ -4606,12 +5094,15 @@
         <v>35</v>
       </c>
       <c r="F163" t="n">
-        <v>17800</v>
+        <v>20400</v>
       </c>
       <c r="G163" t="n">
-        <v>36.40333333333334</v>
+        <v>36.44833333333334</v>
       </c>
       <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4626,18 +5117,21 @@
         <v>35</v>
       </c>
       <c r="D164" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E164" t="n">
         <v>35</v>
       </c>
       <c r="F164" t="n">
-        <v>30800</v>
+        <v>17800</v>
       </c>
       <c r="G164" t="n">
-        <v>36.35833333333335</v>
+        <v>36.40333333333334</v>
       </c>
       <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4649,21 +5143,24 @@
         <v>35</v>
       </c>
       <c r="C165" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="D165" t="n">
         <v>35</v>
       </c>
       <c r="E165" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="F165" t="n">
-        <v>21200</v>
+        <v>30800</v>
       </c>
       <c r="G165" t="n">
-        <v>36.31333333333335</v>
+        <v>36.35833333333335</v>
       </c>
       <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="C166" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="D166" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="E166" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="F166" t="n">
-        <v>14.56</v>
+        <v>21200</v>
       </c>
       <c r="G166" t="n">
-        <v>36.28000000000002</v>
+        <v>36.31333333333335</v>
       </c>
       <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="C167" t="n">
         <v>35.4</v>
       </c>
       <c r="D167" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="E167" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="F167" t="n">
-        <v>67275.59970000001</v>
+        <v>14.56</v>
       </c>
       <c r="G167" t="n">
-        <v>36.24666666666668</v>
+        <v>36.28000000000002</v>
       </c>
       <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="C168" t="n">
         <v>35.4</v>
       </c>
       <c r="D168" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="E168" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="F168" t="n">
-        <v>39800</v>
+        <v>67275.59970000001</v>
       </c>
       <c r="G168" t="n">
-        <v>36.22000000000002</v>
+        <v>36.24666666666668</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>35.4</v>
       </c>
       <c r="F169" t="n">
-        <v>3000</v>
+        <v>39800</v>
       </c>
       <c r="G169" t="n">
-        <v>36.19333333333336</v>
+        <v>36.22000000000002</v>
       </c>
       <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="C170" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D170" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="E170" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="F170" t="n">
-        <v>4526.316</v>
+        <v>3000</v>
       </c>
       <c r="G170" t="n">
-        <v>36.17000000000002</v>
+        <v>36.19333333333336</v>
       </c>
       <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>35.1</v>
+        <v>35.6</v>
       </c>
       <c r="C171" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="D171" t="n">
-        <v>35.1</v>
+        <v>35.6</v>
       </c>
       <c r="E171" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="F171" t="n">
-        <v>785.8972</v>
+        <v>4526.316</v>
       </c>
       <c r="G171" t="n">
-        <v>36.13166666666668</v>
+        <v>36.17000000000002</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4831,21 +5346,24 @@
         <v>35.1</v>
       </c>
       <c r="C172" t="n">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="D172" t="n">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="E172" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F172" t="n">
-        <v>23035.8692</v>
+        <v>785.8972</v>
       </c>
       <c r="G172" t="n">
-        <v>36.10833333333335</v>
+        <v>36.13166666666668</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,7 +5372,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="C173" t="n">
         <v>35.6</v>
@@ -4863,15 +5381,18 @@
         <v>35.6</v>
       </c>
       <c r="E173" t="n">
-        <v>35.6</v>
+        <v>35</v>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>23035.8692</v>
       </c>
       <c r="G173" t="n">
-        <v>36.08666666666668</v>
+        <v>36.10833333333335</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,12 +5413,15 @@
         <v>35.6</v>
       </c>
       <c r="F174" t="n">
-        <v>4746</v>
+        <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>36.06000000000002</v>
+        <v>36.08666666666668</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4909,21 +5433,24 @@
         <v>35.6</v>
       </c>
       <c r="C175" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="D175" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="E175" t="n">
         <v>35.6</v>
       </c>
       <c r="F175" t="n">
-        <v>16313.015</v>
+        <v>4746</v>
       </c>
       <c r="G175" t="n">
-        <v>36.03500000000001</v>
+        <v>36.06000000000002</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="C176" t="n">
         <v>35.7</v>
       </c>
       <c r="D176" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="E176" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="F176" t="n">
-        <v>7101.1047</v>
+        <v>16313.015</v>
       </c>
       <c r="G176" t="n">
-        <v>36.01333333333334</v>
+        <v>36.03500000000001</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="C177" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="D177" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="E177" t="n">
-        <v>35.3</v>
+        <v>35.7</v>
       </c>
       <c r="F177" t="n">
-        <v>20969.0764</v>
+        <v>7101.1047</v>
       </c>
       <c r="G177" t="n">
-        <v>35.98666666666668</v>
+        <v>36.01333333333334</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4987,21 +5520,24 @@
         <v>36.1</v>
       </c>
       <c r="C178" t="n">
-        <v>36.2</v>
+        <v>35.5</v>
       </c>
       <c r="D178" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="E178" t="n">
-        <v>36.1</v>
+        <v>35.3</v>
       </c>
       <c r="F178" t="n">
-        <v>11968.434</v>
+        <v>20969.0764</v>
       </c>
       <c r="G178" t="n">
-        <v>35.97500000000001</v>
+        <v>35.98666666666668</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5013,21 +5549,24 @@
         <v>36.1</v>
       </c>
       <c r="C179" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="D179" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E179" t="n">
         <v>36.1</v>
       </c>
-      <c r="E179" t="n">
-        <v>35.7</v>
-      </c>
       <c r="F179" t="n">
-        <v>11128.6128</v>
+        <v>11968.434</v>
       </c>
       <c r="G179" t="n">
-        <v>35.97000000000001</v>
+        <v>35.97500000000001</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="C180" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="D180" t="n">
         <v>36.1</v>
       </c>
       <c r="E180" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="F180" t="n">
-        <v>10215.3601</v>
+        <v>11128.6128</v>
       </c>
       <c r="G180" t="n">
-        <v>35.96000000000001</v>
+        <v>35.97000000000001</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5065,21 +5607,24 @@
         <v>35.9</v>
       </c>
       <c r="C181" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="D181" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="E181" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="F181" t="n">
-        <v>1500</v>
+        <v>10215.3601</v>
       </c>
       <c r="G181" t="n">
-        <v>35.95666666666668</v>
+        <v>35.96000000000001</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>36.4</v>
+        <v>35.9</v>
       </c>
       <c r="C182" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="D182" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="E182" t="n">
-        <v>36.4</v>
+        <v>35.9</v>
       </c>
       <c r="F182" t="n">
-        <v>35724.5148</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="n">
-        <v>35.95500000000001</v>
+        <v>35.95666666666668</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>36.8</v>
+        <v>36.4</v>
       </c>
       <c r="C183" t="n">
         <v>36.4</v>
       </c>
       <c r="D183" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E183" t="n">
         <v>36.4</v>
       </c>
       <c r="F183" t="n">
-        <v>77357.75930000001</v>
+        <v>35724.5148</v>
       </c>
       <c r="G183" t="n">
         <v>35.95500000000001</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="C184" t="n">
         <v>36.4</v>
       </c>
       <c r="D184" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="E184" t="n">
         <v>36.4</v>
       </c>
       <c r="F184" t="n">
-        <v>5340.8885</v>
+        <v>77357.75930000001</v>
       </c>
       <c r="G184" t="n">
-        <v>35.95000000000002</v>
+        <v>35.95500000000001</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="C185" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="D185" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E185" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F185" t="n">
-        <v>1433.4934</v>
+        <v>5340.8885</v>
       </c>
       <c r="G185" t="n">
-        <v>35.94833333333335</v>
+        <v>35.95000000000002</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5195,21 +5752,24 @@
         <v>36.6</v>
       </c>
       <c r="C186" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D186" t="n">
         <v>36.6</v>
       </c>
       <c r="E186" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F186" t="n">
-        <v>821</v>
+        <v>1433.4934</v>
       </c>
       <c r="G186" t="n">
-        <v>35.94500000000002</v>
+        <v>35.94833333333335</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C187" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D187" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E187" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F187" t="n">
-        <v>5405.4622</v>
+        <v>821</v>
       </c>
       <c r="G187" t="n">
-        <v>35.94333333333336</v>
+        <v>35.94500000000002</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5819,15 @@
         <v>36.4</v>
       </c>
       <c r="F188" t="n">
-        <v>1760.2132</v>
+        <v>5405.4622</v>
       </c>
       <c r="G188" t="n">
-        <v>35.94166666666669</v>
+        <v>35.94333333333336</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,7 +5836,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C189" t="n">
         <v>36.4</v>
@@ -5282,12 +5848,15 @@
         <v>36.4</v>
       </c>
       <c r="F189" t="n">
-        <v>3333.8</v>
+        <v>1760.2132</v>
       </c>
       <c r="G189" t="n">
         <v>35.94166666666669</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5302,18 +5871,21 @@
         <v>36.4</v>
       </c>
       <c r="D190" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E190" t="n">
         <v>36.4</v>
       </c>
       <c r="F190" t="n">
-        <v>3727.4407</v>
+        <v>3333.8</v>
       </c>
       <c r="G190" t="n">
-        <v>35.93333333333336</v>
+        <v>35.94166666666669</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5325,21 +5897,24 @@
         <v>36.4</v>
       </c>
       <c r="C191" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="D191" t="n">
         <v>36.4</v>
       </c>
       <c r="E191" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="F191" t="n">
-        <v>2500</v>
+        <v>3727.4407</v>
       </c>
       <c r="G191" t="n">
-        <v>35.92000000000002</v>
+        <v>35.93333333333336</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C192" t="n">
         <v>36.1</v>
       </c>
-      <c r="C192" t="n">
-        <v>36.5</v>
-      </c>
       <c r="D192" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E192" t="n">
         <v>36.1</v>
       </c>
       <c r="F192" t="n">
-        <v>8926.7408</v>
+        <v>2500</v>
       </c>
       <c r="G192" t="n">
-        <v>35.92166666666669</v>
+        <v>35.92000000000002</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="C193" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="D193" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="E193" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="F193" t="n">
-        <v>954.4789</v>
+        <v>8926.7408</v>
       </c>
       <c r="G193" t="n">
-        <v>35.90500000000002</v>
+        <v>35.92166666666669</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C194" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="D194" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="E194" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F194" t="n">
-        <v>2900</v>
+        <v>954.4789</v>
       </c>
       <c r="G194" t="n">
-        <v>35.88666666666668</v>
+        <v>35.90500000000002</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C195" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D195" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E195" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F195" t="n">
-        <v>736.0137</v>
+        <v>2900</v>
       </c>
       <c r="G195" t="n">
-        <v>35.88166666666669</v>
+        <v>35.88666666666668</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5455,21 +6042,24 @@
         <v>36.4</v>
       </c>
       <c r="C196" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="D196" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E196" t="n">
         <v>36.4</v>
       </c>
       <c r="F196" t="n">
-        <v>7386.3867</v>
+        <v>736.0137</v>
       </c>
       <c r="G196" t="n">
-        <v>35.88000000000002</v>
+        <v>35.88166666666669</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C197" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D197" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E197" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F197" t="n">
-        <v>17527.6589</v>
+        <v>7386.3867</v>
       </c>
       <c r="G197" t="n">
-        <v>35.87666666666669</v>
+        <v>35.88000000000002</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5507,21 +6100,24 @@
         <v>36.5</v>
       </c>
       <c r="C198" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="D198" t="n">
         <v>36.5</v>
       </c>
       <c r="E198" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="F198" t="n">
-        <v>8706.4506</v>
+        <v>17527.6589</v>
       </c>
       <c r="G198" t="n">
-        <v>35.87166666666669</v>
+        <v>35.87666666666669</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="C199" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="D199" t="n">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="E199" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="F199" t="n">
-        <v>3099.1468</v>
+        <v>8706.4506</v>
       </c>
       <c r="G199" t="n">
-        <v>35.86500000000002</v>
+        <v>35.87166666666669</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5559,21 +6158,24 @@
         <v>36.1</v>
       </c>
       <c r="C200" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="D200" t="n">
         <v>36.1</v>
       </c>
       <c r="E200" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="F200" t="n">
-        <v>2350.2697</v>
+        <v>3099.1468</v>
       </c>
       <c r="G200" t="n">
-        <v>35.86000000000002</v>
+        <v>35.86500000000002</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>36.1</v>
       </c>
       <c r="F201" t="n">
-        <v>1559.4773</v>
+        <v>2350.2697</v>
       </c>
       <c r="G201" t="n">
-        <v>35.85500000000002</v>
+        <v>35.86000000000002</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5611,21 +6216,24 @@
         <v>36.1</v>
       </c>
       <c r="C202" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="D202" t="n">
         <v>36.1</v>
       </c>
       <c r="E202" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="F202" t="n">
-        <v>52745.6212</v>
+        <v>1559.4773</v>
       </c>
       <c r="G202" t="n">
-        <v>35.84833333333335</v>
+        <v>35.85500000000002</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="C203" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="D203" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="E203" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="F203" t="n">
-        <v>1537.7742</v>
+        <v>52745.6212</v>
       </c>
       <c r="G203" t="n">
-        <v>35.83333333333335</v>
+        <v>35.84833333333335</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>35.1</v>
+        <v>35.8</v>
       </c>
       <c r="C204" t="n">
-        <v>34.9</v>
+        <v>35.7</v>
       </c>
       <c r="D204" t="n">
-        <v>35.1</v>
+        <v>35.8</v>
       </c>
       <c r="E204" t="n">
-        <v>34.9</v>
+        <v>35.7</v>
       </c>
       <c r="F204" t="n">
-        <v>66629.97040000001</v>
+        <v>1537.7742</v>
       </c>
       <c r="G204" t="n">
-        <v>35.80833333333335</v>
+        <v>35.83333333333335</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C205" t="n">
         <v>34.9</v>
       </c>
-      <c r="C205" t="n">
-        <v>34.7</v>
-      </c>
       <c r="D205" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="E205" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="F205" t="n">
-        <v>51230.598</v>
+        <v>66629.97040000001</v>
       </c>
       <c r="G205" t="n">
-        <v>35.78000000000001</v>
+        <v>35.80833333333335</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="C206" t="n">
-        <v>35.5</v>
+        <v>34.7</v>
       </c>
       <c r="D206" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="E206" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F206" t="n">
-        <v>43800.6135</v>
+        <v>51230.598</v>
       </c>
       <c r="G206" t="n">
-        <v>35.76666666666667</v>
+        <v>35.78000000000001</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5741,21 +6361,24 @@
         <v>35.1</v>
       </c>
       <c r="C207" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="D207" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="E207" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="F207" t="n">
-        <v>19427.4014</v>
+        <v>43800.6135</v>
       </c>
       <c r="G207" t="n">
-        <v>35.75000000000001</v>
+        <v>35.76666666666667</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C208" t="n">
         <v>35.2</v>
       </c>
-      <c r="C208" t="n">
-        <v>35.5</v>
-      </c>
       <c r="D208" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="E208" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F208" t="n">
-        <v>49800</v>
+        <v>19427.4014</v>
       </c>
       <c r="G208" t="n">
-        <v>35.74666666666668</v>
+        <v>35.75000000000001</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5793,21 +6419,24 @@
         <v>35.2</v>
       </c>
       <c r="C209" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="D209" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="E209" t="n">
         <v>35.2</v>
       </c>
       <c r="F209" t="n">
-        <v>998.0758</v>
+        <v>49800</v>
       </c>
       <c r="G209" t="n">
-        <v>35.74000000000001</v>
+        <v>35.74666666666668</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="C210" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="D210" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="E210" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="F210" t="n">
-        <v>6719.8337</v>
+        <v>998.0758</v>
       </c>
       <c r="G210" t="n">
-        <v>35.73833333333334</v>
+        <v>35.74000000000001</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5854,12 +6486,15 @@
         <v>35.4</v>
       </c>
       <c r="F211" t="n">
-        <v>4000</v>
+        <v>6719.8337</v>
       </c>
       <c r="G211" t="n">
-        <v>35.73500000000001</v>
+        <v>35.73833333333334</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5871,21 +6506,24 @@
         <v>35.4</v>
       </c>
       <c r="C212" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="D212" t="n">
         <v>35.4</v>
       </c>
       <c r="E212" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="F212" t="n">
-        <v>3397.0298</v>
+        <v>4000</v>
       </c>
       <c r="G212" t="n">
-        <v>35.74166666666667</v>
+        <v>35.73500000000001</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C213" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="D213" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="E213" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="F213" t="n">
-        <v>5000</v>
+        <v>3397.0298</v>
       </c>
       <c r="G213" t="n">
-        <v>35.74333333333334</v>
+        <v>35.74166666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5932,12 +6573,15 @@
         <v>35.5</v>
       </c>
       <c r="F214" t="n">
-        <v>514.5599999999999</v>
+        <v>5000</v>
       </c>
       <c r="G214" t="n">
         <v>35.74333333333334</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5958,12 +6602,15 @@
         <v>35.5</v>
       </c>
       <c r="F215" t="n">
-        <v>264.9129</v>
+        <v>514.5599999999999</v>
       </c>
       <c r="G215" t="n">
-        <v>35.74166666666667</v>
+        <v>35.74333333333334</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5975,21 +6622,24 @@
         <v>35.5</v>
       </c>
       <c r="C216" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="D216" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="E216" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="F216" t="n">
-        <v>30966.0451</v>
+        <v>264.9129</v>
       </c>
       <c r="G216" t="n">
         <v>35.74166666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C217" t="n">
         <v>35.7</v>
       </c>
-      <c r="C217" t="n">
-        <v>36</v>
-      </c>
       <c r="D217" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="E217" t="n">
-        <v>35.7</v>
+        <v>35.3</v>
       </c>
       <c r="F217" t="n">
-        <v>19100</v>
+        <v>30966.0451</v>
       </c>
       <c r="G217" t="n">
-        <v>35.74833333333334</v>
+        <v>35.74166666666667</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="C218" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="D218" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="E218" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="F218" t="n">
-        <v>10009</v>
+        <v>19100</v>
       </c>
       <c r="G218" t="n">
-        <v>35.75833333333334</v>
+        <v>35.74833333333334</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,7 +6706,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="C219" t="n">
         <v>36.2</v>
@@ -6059,15 +6715,18 @@
         <v>36.2</v>
       </c>
       <c r="E219" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="F219" t="n">
-        <v>1445.441</v>
+        <v>10009</v>
       </c>
       <c r="G219" t="n">
-        <v>35.77166666666667</v>
+        <v>35.75833333333334</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6079,21 +6738,24 @@
         <v>36.2</v>
       </c>
       <c r="C220" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="D220" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="E220" t="n">
         <v>36.2</v>
       </c>
       <c r="F220" t="n">
-        <v>3065.1604</v>
+        <v>1445.441</v>
       </c>
       <c r="G220" t="n">
-        <v>35.78833333333333</v>
+        <v>35.77166666666667</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C221" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D221" t="n">
         <v>36.4</v>
       </c>
       <c r="E221" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F221" t="n">
-        <v>38400</v>
+        <v>3065.1604</v>
       </c>
       <c r="G221" t="n">
-        <v>35.81000000000001</v>
+        <v>35.78833333333333</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="C222" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D222" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E222" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F222" t="n">
-        <v>16628.6899</v>
+        <v>38400</v>
       </c>
       <c r="G222" t="n">
-        <v>35.83000000000001</v>
+        <v>35.81000000000001</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C223" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="D223" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="E223" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="F223" t="n">
-        <v>30588.124</v>
+        <v>16628.6899</v>
       </c>
       <c r="G223" t="n">
-        <v>35.84833333333334</v>
+        <v>35.83000000000001</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6183,21 +6854,24 @@
         <v>36.3</v>
       </c>
       <c r="C224" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="D224" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E224" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="F224" t="n">
-        <v>19200</v>
+        <v>30588.124</v>
       </c>
       <c r="G224" t="n">
-        <v>35.87166666666667</v>
+        <v>35.84833333333334</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="C225" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D225" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E225" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F225" t="n">
-        <v>884.4977</v>
+        <v>19200</v>
       </c>
       <c r="G225" t="n">
-        <v>35.895</v>
+        <v>35.87166666666667</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,12 +6921,15 @@
         <v>36.2</v>
       </c>
       <c r="F226" t="n">
-        <v>3000</v>
+        <v>884.4977</v>
       </c>
       <c r="G226" t="n">
-        <v>35.90833333333332</v>
+        <v>35.895</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6261,21 +6941,24 @@
         <v>36.2</v>
       </c>
       <c r="C227" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="D227" t="n">
         <v>36.2</v>
       </c>
       <c r="E227" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="F227" t="n">
-        <v>2238.2427</v>
+        <v>3000</v>
       </c>
       <c r="G227" t="n">
-        <v>35.91999999999999</v>
+        <v>35.90833333333332</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C228" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="D228" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="E228" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="F228" t="n">
-        <v>10774.8103</v>
+        <v>2238.2427</v>
       </c>
       <c r="G228" t="n">
-        <v>35.93499999999999</v>
+        <v>35.91999999999999</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C229" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D229" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E229" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F229" t="n">
-        <v>12502.1249</v>
+        <v>10774.8103</v>
       </c>
       <c r="G229" t="n">
-        <v>35.95166666666666</v>
+        <v>35.93499999999999</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="C230" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D230" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E230" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="F230" t="n">
-        <v>5749.0963</v>
+        <v>12502.1249</v>
       </c>
       <c r="G230" t="n">
-        <v>35.96333333333332</v>
+        <v>35.95166666666666</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C231" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="D231" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="E231" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F231" t="n">
-        <v>860.1196</v>
+        <v>5749.0963</v>
       </c>
       <c r="G231" t="n">
-        <v>35.98499999999999</v>
+        <v>35.96333333333332</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C232" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D232" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E232" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F232" t="n">
-        <v>879.1128</v>
+        <v>860.1196</v>
       </c>
       <c r="G232" t="n">
-        <v>35.99999999999999</v>
+        <v>35.98499999999999</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6426,12 +7124,15 @@
         <v>36.5</v>
       </c>
       <c r="F233" t="n">
-        <v>500</v>
+        <v>879.1128</v>
       </c>
       <c r="G233" t="n">
-        <v>36.01499999999999</v>
+        <v>35.99999999999999</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6443,21 +7144,24 @@
         <v>36.5</v>
       </c>
       <c r="C234" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D234" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E234" t="n">
         <v>36.5</v>
       </c>
       <c r="F234" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G234" t="n">
-        <v>36.03166666666666</v>
+        <v>36.01499999999999</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,7 +7170,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C235" t="n">
         <v>36.6</v>
@@ -6475,15 +7179,18 @@
         <v>36.6</v>
       </c>
       <c r="E235" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F235" t="n">
-        <v>1246.7794</v>
+        <v>1000</v>
       </c>
       <c r="G235" t="n">
-        <v>36.04666666666666</v>
+        <v>36.03166666666666</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C236" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D236" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E236" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F236" t="n">
-        <v>1556.9556</v>
+        <v>1246.7794</v>
       </c>
       <c r="G236" t="n">
-        <v>36.05833333333333</v>
+        <v>36.04666666666666</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C237" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D237" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E237" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F237" t="n">
-        <v>1060.5237</v>
+        <v>1556.9556</v>
       </c>
       <c r="G237" t="n">
-        <v>36.07166666666667</v>
+        <v>36.05833333333333</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C238" t="n">
         <v>36.3</v>
       </c>
       <c r="D238" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E238" t="n">
         <v>36.3</v>
       </c>
       <c r="F238" t="n">
-        <v>17513.4413</v>
+        <v>1060.5237</v>
       </c>
       <c r="G238" t="n">
-        <v>36.07333333333334</v>
+        <v>36.07166666666667</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C239" t="n">
         <v>36.3</v>
       </c>
       <c r="D239" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E239" t="n">
         <v>36.3</v>
       </c>
       <c r="F239" t="n">
-        <v>1000</v>
+        <v>17513.4413</v>
       </c>
       <c r="G239" t="n">
-        <v>36.07833333333335</v>
+        <v>36.07333333333334</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C240" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="D240" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="E240" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F240" t="n">
-        <v>18095.7922</v>
+        <v>1000</v>
       </c>
       <c r="G240" t="n">
-        <v>36.09000000000001</v>
+        <v>36.07833333333335</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,7 +7344,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C241" t="n">
         <v>36.5</v>
@@ -6631,15 +7353,18 @@
         <v>36.5</v>
       </c>
       <c r="E241" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F241" t="n">
-        <v>1154.4475</v>
+        <v>18095.7922</v>
       </c>
       <c r="G241" t="n">
-        <v>36.09833333333334</v>
+        <v>36.09000000000001</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6651,21 +7376,24 @@
         <v>36.5</v>
       </c>
       <c r="C242" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D242" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E242" t="n">
         <v>36.5</v>
       </c>
       <c r="F242" t="n">
-        <v>4263.9453</v>
+        <v>1154.4475</v>
       </c>
       <c r="G242" t="n">
-        <v>36.10166666666667</v>
+        <v>36.09833333333334</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C243" t="n">
-        <v>35.8</v>
+        <v>36.6</v>
       </c>
       <c r="D243" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E243" t="n">
-        <v>35.8</v>
+        <v>36.5</v>
       </c>
       <c r="F243" t="n">
-        <v>112612</v>
+        <v>4263.9453</v>
       </c>
       <c r="G243" t="n">
-        <v>36.09166666666668</v>
+        <v>36.10166666666667</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C244" t="n">
-        <v>36.5</v>
+        <v>35.8</v>
       </c>
       <c r="D244" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E244" t="n">
-        <v>36.2</v>
+        <v>35.8</v>
       </c>
       <c r="F244" t="n">
-        <v>26738.3424</v>
+        <v>112612</v>
       </c>
       <c r="G244" t="n">
-        <v>36.09333333333334</v>
+        <v>36.09166666666668</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,7 +7460,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="C245" t="n">
         <v>36.5</v>
@@ -6735,15 +7469,18 @@
         <v>36.5</v>
       </c>
       <c r="E245" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F245" t="n">
-        <v>5000</v>
+        <v>26738.3424</v>
       </c>
       <c r="G245" t="n">
-        <v>36.09166666666668</v>
+        <v>36.09333333333334</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,7 +7489,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="C246" t="n">
         <v>36.5</v>
@@ -6761,15 +7498,18 @@
         <v>36.5</v>
       </c>
       <c r="E246" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F246" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="G246" t="n">
         <v>36.09166666666668</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C247" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D247" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E247" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F247" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G247" t="n">
         <v>36.09166666666668</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6807,21 +7550,24 @@
         <v>36.4</v>
       </c>
       <c r="C248" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="D248" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E248" t="n">
         <v>36.4</v>
       </c>
       <c r="F248" t="n">
-        <v>12533</v>
+        <v>5000</v>
       </c>
       <c r="G248" t="n">
-        <v>36.09500000000001</v>
+        <v>36.09166666666668</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C249" t="n">
         <v>36.6</v>
       </c>
-      <c r="C249" t="n">
-        <v>36.8</v>
-      </c>
       <c r="D249" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="E249" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F249" t="n">
-        <v>15000</v>
+        <v>12533</v>
       </c>
       <c r="G249" t="n">
-        <v>36.10166666666667</v>
+        <v>36.09500000000001</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C250" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D250" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E250" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="F250" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="G250" t="n">
-        <v>36.10666666666667</v>
+        <v>36.10166666666667</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6894,12 +7646,15 @@
         <v>36.7</v>
       </c>
       <c r="F251" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G251" t="n">
-        <v>36.11666666666667</v>
+        <v>36.10666666666667</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="C252" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D252" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E252" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="F252" t="n">
-        <v>782.7041</v>
+        <v>4000</v>
       </c>
       <c r="G252" t="n">
-        <v>36.11833333333333</v>
+        <v>36.11666666666667</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6946,12 +7704,15 @@
         <v>36.6</v>
       </c>
       <c r="F253" t="n">
-        <v>10111.2899</v>
+        <v>782.7041</v>
       </c>
       <c r="G253" t="n">
-        <v>36.125</v>
+        <v>36.11833333333333</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6972,12 +7733,15 @@
         <v>36.6</v>
       </c>
       <c r="F254" t="n">
-        <v>5000</v>
+        <v>10111.2899</v>
       </c>
       <c r="G254" t="n">
-        <v>36.13</v>
+        <v>36.125</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C255" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D255" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E255" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F255" t="n">
-        <v>146649.7041</v>
+        <v>5000</v>
       </c>
       <c r="G255" t="n">
-        <v>36.13166666666666</v>
+        <v>36.13</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,24 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="C256" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="D256" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E256" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="F256" t="n">
-        <v>11000</v>
+        <v>146649.7041</v>
       </c>
       <c r="G256" t="n">
-        <v>36.135</v>
+        <v>36.13166666666666</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,24 +7808,27 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="C257" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="D257" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="E257" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="F257" t="n">
-        <v>1781.9765</v>
+        <v>11000</v>
       </c>
       <c r="G257" t="n">
-        <v>36.13666666666666</v>
+        <v>36.135</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,24 +7837,27 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C258" t="n">
         <v>36.6</v>
-      </c>
-      <c r="C258" t="n">
-        <v>36.4</v>
       </c>
       <c r="D258" t="n">
         <v>36.6</v>
       </c>
       <c r="E258" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F258" t="n">
-        <v>12030.7686</v>
+        <v>1781.9765</v>
       </c>
       <c r="G258" t="n">
-        <v>36.14</v>
+        <v>36.13666666666666</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C259" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D259" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E259" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F259" t="n">
-        <v>1581.425</v>
+        <v>12030.7686</v>
       </c>
       <c r="G259" t="n">
-        <v>36.14833333333333</v>
+        <v>36.14</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7128,12 +7907,15 @@
         <v>36.5</v>
       </c>
       <c r="F260" t="n">
-        <v>1694.6147</v>
+        <v>1581.425</v>
       </c>
       <c r="G260" t="n">
-        <v>36.155</v>
+        <v>36.14833333333333</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7154,12 +7936,15 @@
         <v>36.5</v>
       </c>
       <c r="F261" t="n">
-        <v>1607.3964</v>
+        <v>1694.6147</v>
       </c>
       <c r="G261" t="n">
-        <v>36.16166666666667</v>
+        <v>36.155</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7180,12 +7965,15 @@
         <v>36.5</v>
       </c>
       <c r="F262" t="n">
-        <v>783.3413</v>
+        <v>1607.3964</v>
       </c>
       <c r="G262" t="n">
-        <v>36.17</v>
+        <v>36.16166666666667</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,24 +7982,27 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C263" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D263" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E263" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F263" t="n">
-        <v>1121.349</v>
+        <v>783.3413</v>
       </c>
       <c r="G263" t="n">
-        <v>36.18166666666668</v>
+        <v>36.17</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7232,13 +8023,16 @@
         <v>36.4</v>
       </c>
       <c r="F264" t="n">
-        <v>809.6289</v>
+        <v>1121.349</v>
       </c>
       <c r="G264" t="n">
-        <v>36.20666666666668</v>
+        <v>36.18166666666668</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -7246,24 +8040,27 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C265" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D265" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E265" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F265" t="n">
-        <v>10000</v>
+        <v>809.6289</v>
       </c>
       <c r="G265" t="n">
-        <v>36.23333333333335</v>
+        <v>36.20666666666668</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7275,22 +8072,25 @@
         <v>36.3</v>
       </c>
       <c r="C266" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D266" t="n">
         <v>36.3</v>
       </c>
       <c r="E266" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="F266" t="n">
-        <v>293255.8195</v>
+        <v>10000</v>
       </c>
       <c r="G266" t="n">
-        <v>36.24500000000001</v>
+        <v>36.23333333333335</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -7301,21 +8101,24 @@
         <v>36.3</v>
       </c>
       <c r="C267" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="D267" t="n">
         <v>36.3</v>
       </c>
       <c r="E267" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="F267" t="n">
-        <v>19000</v>
+        <v>293255.8195</v>
       </c>
       <c r="G267" t="n">
-        <v>36.26333333333335</v>
+        <v>36.24500000000001</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7336,13 +8139,16 @@
         <v>36.3</v>
       </c>
       <c r="F268" t="n">
-        <v>8693.5465</v>
+        <v>19000</v>
       </c>
       <c r="G268" t="n">
-        <v>36.27666666666669</v>
+        <v>36.26333333333335</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -7353,21 +8159,24 @@
         <v>36.3</v>
       </c>
       <c r="C269" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D269" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E269" t="n">
         <v>36.3</v>
       </c>
       <c r="F269" t="n">
-        <v>23485.4971</v>
+        <v>8693.5465</v>
       </c>
       <c r="G269" t="n">
-        <v>36.2966666666667</v>
+        <v>36.27666666666669</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,25 +8185,28 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="C270" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D270" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E270" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F270" t="n">
-        <v>878.1847</v>
+        <v>23485.4971</v>
       </c>
       <c r="G270" t="n">
-        <v>36.31000000000002</v>
+        <v>36.2966666666667</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -7402,24 +8214,27 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C271" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="D271" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="E271" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F271" t="n">
-        <v>13740.92907884615</v>
+        <v>878.1847</v>
       </c>
       <c r="G271" t="n">
-        <v>36.32666666666669</v>
+        <v>36.31000000000002</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7431,22 +8246,25 @@
         <v>36.3</v>
       </c>
       <c r="C272" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D272" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E272" t="n">
         <v>36.3</v>
       </c>
       <c r="F272" t="n">
-        <v>14095.412</v>
+        <v>13740.92907884615</v>
       </c>
       <c r="G272" t="n">
-        <v>36.34500000000003</v>
+        <v>36.32666666666669</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -7454,24 +8272,27 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="C273" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="D273" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="E273" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="F273" t="n">
-        <v>125800</v>
+        <v>14095.412</v>
       </c>
       <c r="G273" t="n">
-        <v>36.36500000000002</v>
+        <v>36.34500000000003</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7483,21 +8304,24 @@
         <v>36.5</v>
       </c>
       <c r="C274" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="D274" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E274" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F274" t="n">
-        <v>1702.2498</v>
+        <v>125800</v>
       </c>
       <c r="G274" t="n">
-        <v>36.38000000000002</v>
+        <v>36.36500000000002</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7509,21 +8333,24 @@
         <v>36.5</v>
       </c>
       <c r="C275" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D275" t="n">
         <v>36.5</v>
       </c>
       <c r="E275" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F275" t="n">
-        <v>851.1249</v>
+        <v>1702.2498</v>
       </c>
       <c r="G275" t="n">
-        <v>36.39666666666669</v>
+        <v>36.38000000000002</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,24 +8359,27 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C276" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D276" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E276" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F276" t="n">
-        <v>4573.8916</v>
+        <v>851.1249</v>
       </c>
       <c r="G276" t="n">
-        <v>36.40833333333337</v>
+        <v>36.39666666666669</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7558,544 +8388,27 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C277" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D277" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E277" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F277" t="n">
-        <v>850.7564</v>
+        <v>4573.8916</v>
       </c>
       <c r="G277" t="n">
-        <v>36.4166666666667</v>
+        <v>36.40833333333337</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C278" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D278" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E278" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F278" t="n">
-        <v>15301.3133</v>
-      </c>
-      <c r="G278" t="n">
-        <v>36.41833333333337</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C279" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D279" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E279" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F279" t="n">
-        <v>44074.7159</v>
-      </c>
-      <c r="G279" t="n">
-        <v>36.42000000000004</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C280" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D280" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E280" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="F280" t="n">
-        <v>26862.3861</v>
-      </c>
-      <c r="G280" t="n">
-        <v>36.42000000000004</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="C281" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D281" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E281" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F281" t="n">
-        <v>4188.1121</v>
-      </c>
-      <c r="G281" t="n">
-        <v>36.42166666666671</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C282" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D282" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E282" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F282" t="n">
-        <v>109243.4513</v>
-      </c>
-      <c r="G282" t="n">
-        <v>36.42333333333338</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C283" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D283" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E283" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F283" t="n">
-        <v>13000.0044</v>
-      </c>
-      <c r="G283" t="n">
-        <v>36.42666666666672</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C284" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D284" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E284" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F284" t="n">
-        <v>7284.6415</v>
-      </c>
-      <c r="G284" t="n">
-        <v>36.42500000000005</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C285" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D285" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E285" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F285" t="n">
-        <v>21585.2107</v>
-      </c>
-      <c r="G285" t="n">
-        <v>36.42666666666673</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C286" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D286" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E286" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F286" t="n">
-        <v>10</v>
-      </c>
-      <c r="G286" t="n">
-        <v>36.43333333333339</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C287" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D287" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E287" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F287" t="n">
-        <v>16889.348</v>
-      </c>
-      <c r="G287" t="n">
-        <v>36.43666666666673</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C288" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D288" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E288" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F288" t="n">
-        <v>4236.009</v>
-      </c>
-      <c r="G288" t="n">
-        <v>36.43666666666673</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C289" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D289" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E289" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F289" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G289" t="n">
-        <v>36.43500000000007</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C290" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D290" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E290" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F290" t="n">
-        <v>12892.0389</v>
-      </c>
-      <c r="G290" t="n">
-        <v>36.43666666666674</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C291" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D291" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E291" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F291" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G291" t="n">
-        <v>36.43500000000007</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="C292" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="D292" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="E292" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="F292" t="n">
-        <v>66907.36659999999</v>
-      </c>
-      <c r="G292" t="n">
-        <v>36.42500000000008</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="C293" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D293" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="E293" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F293" t="n">
-        <v>5500</v>
-      </c>
-      <c r="G293" t="n">
-        <v>36.42333333333341</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="C294" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="D294" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="E294" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F294" t="n">
-        <v>43024.9171</v>
-      </c>
-      <c r="G294" t="n">
-        <v>36.41666666666674</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="C295" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="D295" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="E295" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="F295" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G295" t="n">
-        <v>36.41000000000007</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="C296" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="D296" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E296" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F296" t="n">
-        <v>60938.1978</v>
-      </c>
-      <c r="G296" t="n">
-        <v>36.40166666666674</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="C297" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="D297" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E297" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="F297" t="n">
-        <v>5590</v>
-      </c>
-      <c r="G297" t="n">
-        <v>36.40000000000007</v>
-      </c>
-      <c r="H297" t="n">
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
